--- a/data/titanic/modified_dataset.xlsx
+++ b/data/titanic/modified_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,52 +434,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Survived</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Pclass</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Sex</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SibSp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Parch</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fare</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cabin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Embarked</t>
         </is>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -495,29 +495,32 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>38</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>71.2833</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>C85</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -525,33 +528,36 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
       <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>26</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>7.925</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -559,37 +565,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>35</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>53.1</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>C123</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -597,33 +606,36 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>35</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -631,31 +643,34 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
       <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>8.458299999999999</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -663,37 +678,40 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>54</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>51.8625</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>E46</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -701,33 +719,36 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
       <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>21.075</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -735,33 +756,36 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
       <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>27</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>11.1333</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -769,33 +793,36 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>14</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>30.0708</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -803,37 +830,40 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
       <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>16.7</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -841,37 +871,40 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>58</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>26.55</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>C103</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -879,33 +912,36 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
       <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>20</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -913,33 +949,36 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
       <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>39</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>31.275</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -947,33 +986,36 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
       <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>14</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>7.8542</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -981,33 +1023,36 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>55</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>16</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1015,33 +1060,36 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
       <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>29.125</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -1049,31 +1097,34 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>13</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1081,33 +1132,36 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
       <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>31</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>18</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1115,31 +1169,34 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
       <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>7.225</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1147,33 +1204,36 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>35</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>26</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1181,37 +1241,40 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
       <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>34</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>13</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>D56</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1219,33 +1282,36 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
       <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>15</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>8.029199999999999</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -1253,37 +1319,40 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>28</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>35.5</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1291,33 +1360,36 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
       <c r="C25" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>8</v>
       </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>21.075</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1325,33 +1397,36 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
       <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>38</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>31.3875</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1359,31 +1434,34 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
       <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>7.225</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1391,37 +1469,40 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>19</v>
       </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>263</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>C23 C25 C27</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1429,31 +1510,34 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
       <c r="C29" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>7.8792</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -1461,31 +1545,34 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
       <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>7.8958</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1493,33 +1580,36 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>40</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>27.7208</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1527,35 +1617,38 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>146.5208</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>B78</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1563,31 +1656,34 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
       <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>7.75</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -1595,33 +1691,36 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>66</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>10.5</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1629,33 +1728,36 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>28</v>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>82.1708</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1663,33 +1765,36 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
       <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>42</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>52</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1697,31 +1802,34 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
       <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>7.2292</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1729,33 +1837,36 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
       <c r="C38" t="n">
-        <v>3</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>21</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1763,33 +1874,36 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
       <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>18</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>18</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1797,33 +1911,36 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
       <c r="C40" t="n">
-        <v>3</v>
-      </c>
-      <c r="D40" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>14</v>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>11.2417</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1831,33 +1948,36 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
       <c r="C41" t="n">
-        <v>3</v>
-      </c>
-      <c r="D41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>40</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>9.475</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1865,33 +1985,36 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
         <v>2</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>27</v>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>21</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1899,31 +2022,34 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
       <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>7.8958</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1931,33 +2057,36 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
       <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
         <v>2</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>3</v>
-      </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>41.5792</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1965,33 +2094,36 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
       <c r="C45" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>19</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>7.8792</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -1999,31 +2131,34 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
       <c r="C46" t="n">
-        <v>3</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2031,31 +2166,34 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
       <c r="C47" t="n">
-        <v>3</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>15.5</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -2063,31 +2201,34 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
       <c r="C48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D48" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>7.75</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -2095,31 +2236,34 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
       <c r="C49" t="n">
-        <v>3</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
         <v>2</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>21.6792</v>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2127,33 +2271,36 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
       <c r="C50" t="n">
-        <v>3</v>
-      </c>
-      <c r="D50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>18</v>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>17.8</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2161,33 +2308,36 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
       <c r="C51" t="n">
-        <v>3</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>7</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>4</v>
       </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>39.6875</v>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2195,33 +2345,36 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
       <c r="C52" t="n">
-        <v>3</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
         <v>21</v>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>7.8</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2229,37 +2382,40 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>49</v>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>76.72920000000001</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>D33</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2267,33 +2423,36 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
       <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
         <v>2</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>29</v>
       </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>26</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2301,37 +2460,40 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
       <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>65</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>61.9792</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>B30</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2339,35 +2501,38 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>35.5</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>C52</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2375,33 +2540,36 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
       <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
         <v>2</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>21</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>10.5</v>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2409,33 +2577,36 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
       <c r="C58" t="n">
-        <v>3</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
         <v>28.5</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>7.2292</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2443,33 +2614,36 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
       <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
         <v>2</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>5</v>
       </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>27.75</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2477,33 +2651,36 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
       <c r="C60" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>11</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>5</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>46.9</v>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2511,33 +2688,36 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
       <c r="C61" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>22</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>7.2292</v>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2545,71 +2725,77 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>38</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>80</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>B28</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
       <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>45</v>
       </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>83.47499999999999</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>C83</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2617,33 +2803,36 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
       <c r="C64" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
         <v>4</v>
       </c>
-      <c r="F64" t="n">
-        <v>3</v>
-      </c>
       <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>27.9</v>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2651,31 +2840,34 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
       <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>27.7208</v>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2683,31 +2875,34 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
       <c r="C66" t="n">
-        <v>3</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>15.2458</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2715,37 +2910,40 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
       <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
         <v>2</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>29</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>10.5</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>F33</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2753,33 +2951,36 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
       <c r="C68" t="n">
-        <v>3</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>19</v>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>8.158300000000001</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2787,33 +2988,36 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
       <c r="C69" t="n">
-        <v>3</v>
-      </c>
-      <c r="D69" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>17</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>4</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>7.925</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2821,33 +3025,36 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
       <c r="C70" t="n">
-        <v>3</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>26</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>2</v>
       </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>8.6625</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2855,33 +3062,36 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
         <v>2</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>32</v>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>10.5</v>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2889,33 +3099,36 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
       <c r="C72" t="n">
-        <v>3</v>
-      </c>
-      <c r="D72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>16</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>5</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>46.9</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2923,33 +3136,36 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
       <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
         <v>2</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
         <v>21</v>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>73.5</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2957,33 +3173,36 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>73</v>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
       <c r="C74" t="n">
-        <v>3</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
         <v>26</v>
       </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>14.4542</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -2991,33 +3210,36 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
       <c r="C75" t="n">
-        <v>3</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
         <v>32</v>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>56.4958</v>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3025,37 +3247,40 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
       <c r="C76" t="n">
-        <v>3</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
         <v>25</v>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>7.65</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>F G73</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3063,31 +3288,34 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>76</v>
       </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
       <c r="C77" t="n">
-        <v>3</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>7.8958</v>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3095,31 +3323,34 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
       <c r="C78" t="n">
-        <v>3</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3127,33 +3358,36 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>78</v>
       </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
       <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
         <v>2</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
         <v>0.83</v>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>29</v>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3161,33 +3395,36 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>79</v>
       </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
       <c r="C80" t="n">
-        <v>3</v>
-      </c>
-      <c r="D80" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>30</v>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>12.475</v>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3195,33 +3432,36 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
       <c r="C81" t="n">
-        <v>3</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
         <v>22</v>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>9</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3229,33 +3469,36 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
       <c r="C82" t="n">
-        <v>3</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
         <v>29</v>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>9.5</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3263,31 +3506,34 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
       <c r="C83" t="n">
-        <v>3</v>
-      </c>
-      <c r="D83" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>7.7875</v>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -3295,33 +3541,36 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
       <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
         <v>28</v>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>47.1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3329,33 +3578,36 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
       <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
         <v>2</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>17</v>
       </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>10.5</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3363,33 +3615,36 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
       <c r="C86" t="n">
-        <v>3</v>
-      </c>
-      <c r="D86" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>33</v>
       </c>
-      <c r="F86" t="n">
-        <v>3</v>
-      </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>15.85</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3397,33 +3652,36 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
       <c r="C87" t="n">
-        <v>3</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
         <v>16</v>
       </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
         <v>34.375</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3431,31 +3689,34 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
       <c r="C88" t="n">
-        <v>3</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3463,37 +3724,40 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>23</v>
       </c>
-      <c r="F89" t="n">
-        <v>3</v>
-      </c>
       <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>263</v>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>C23 C25 C27</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3501,33 +3765,36 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
       <c r="C90" t="n">
-        <v>3</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
         <v>24</v>
       </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3535,33 +3802,36 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
         <v>90</v>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
       <c r="C91" t="n">
-        <v>3</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>29</v>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3569,33 +3839,36 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
       <c r="C92" t="n">
-        <v>3</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
         <v>20</v>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>7.8542</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3603,37 +3876,40 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
         <v>92</v>
       </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
       <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
         <v>46</v>
       </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>61.175</v>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>E31</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3641,33 +3917,36 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
       <c r="C94" t="n">
-        <v>3</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
         <v>26</v>
       </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>20.575</v>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3675,33 +3954,36 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>94</v>
       </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
       <c r="C95" t="n">
-        <v>3</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
         <v>59</v>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>7.25</v>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3709,31 +3991,34 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
       <c r="C96" t="n">
-        <v>3</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3741,37 +4026,40 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
       <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>71</v>
       </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>34.6542</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -3779,37 +4067,40 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
         <v>23</v>
       </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>63.3583</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>D10 D12</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -3817,33 +4108,36 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>98</v>
       </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
       <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
         <v>2</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>34</v>
       </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>23</v>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3851,33 +4145,36 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
         <v>99</v>
       </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>2</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
         <v>34</v>
       </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>26</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3885,33 +4182,36 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
         <v>100</v>
       </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
       <c r="C101" t="n">
-        <v>3</v>
-      </c>
-      <c r="D101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>28</v>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>7.8958</v>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>S</t>
         </is>
